--- a/0002 - Database/001 - Custo de VIda.xlsx
+++ b/0002 - Database/001 - Custo de VIda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0000 - Dattebayo\Google Drive (datteonline@gmail.com)\4000 - GIT Dattebayo-Online\0002 - Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93387CBB-CAF1-4F06-8246-63E9C715D5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4CF6E-AF09-4A41-B5B9-DEB4AAFA332D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A37AA958-4172-4E05-9AB5-772940F50A80}"/>
+    <workbookView xWindow="3945" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{A37AA958-4172-4E05-9AB5-772940F50A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Serviço</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>VIP</t>
-  </si>
-  <si>
-    <t>Banco</t>
   </si>
   <si>
     <t>Curandeira</t>
@@ -237,39 +234,42 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -278,9 +278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,151 +596,143 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2500</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>1250</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="6">
+        <v>750</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
         <v>2000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E11" s="6">
         <v>1000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
         <v>1500</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E12" s="6">
         <v>750</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="9">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9">
         <v>5000</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="7">
-        <v>750</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>2500</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
     </row>

--- a/0002 - Database/001 - Custo de VIda.xlsx
+++ b/0002 - Database/001 - Custo de VIda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0000 - Dattebayo\Google Drive (datteonline@gmail.com)\4000 - GIT Dattebayo-Online\0002 - Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A4CF6E-AF09-4A41-B5B9-DEB4AAFA332D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E8835-B402-4283-8AC5-7ED38F4949B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{A37AA958-4172-4E05-9AB5-772940F50A80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A37AA958-4172-4E05-9AB5-772940F50A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Serviço</t>
   </si>
@@ -58,15 +58,6 @@
     <t>Curandeira</t>
   </si>
   <si>
-    <t>Estilista</t>
-  </si>
-  <si>
-    <t>Teleportadora</t>
-  </si>
-  <si>
-    <t>Viajante</t>
-  </si>
-  <si>
     <t>Estaleiro (save)</t>
   </si>
   <si>
@@ -80,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +95,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -232,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +598,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -631,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -639,7 +641,7 @@
     </row>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -656,85 +658,61 @@
     </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="6">
+        <v>750</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="6">
-        <v>750</v>
-      </c>
-      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="6">
-        <v>750</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2500</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/0002 - Database/001 - Custo de VIda.xlsx
+++ b/0002 - Database/001 - Custo de VIda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0000 - Dattebayo\Google Drive (datteonline@gmail.com)\4000 - GIT Dattebayo-Online\0002 - Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E8835-B402-4283-8AC5-7ED38F4949B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD931C6-BC49-4758-9E21-53365DDC6144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A37AA958-4172-4E05-9AB5-772940F50A80}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Serviço</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>BASICO</t>
+  </si>
+  <si>
+    <t>Refinador</t>
+  </si>
+  <si>
+    <t>(+1) - 5000</t>
+  </si>
+  <si>
+    <t>(+2) - 10000</t>
+  </si>
+  <si>
+    <t>(+3) - 25000</t>
+  </si>
+  <si>
+    <t>(+4) 50000 + Item</t>
   </si>
 </sst>
 </file>
@@ -104,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +132,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -227,11 +248,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,10 +312,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -278,7 +330,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD95864-8DB9-4E4C-A131-3F6C5D696297}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -606,7 +685,7 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -649,7 +728,7 @@
       <c r="D7" s="4">
         <v>2500</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>1250</v>
       </c>
       <c r="F7" s="5">
@@ -682,42 +761,56 @@
       <c r="E9" s="8">
         <v>5000</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="18" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
